--- a/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -94,6 +94,69 @@
   </si>
   <si>
     <t>SCRIPT/G01P05A/um0501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/G01P05A/um0601.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um0602.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um0603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?[K] You\'re going to get me\nsome Perfect Apples?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um0701.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А?[K] Вы принесёте мне\nИдеальных Яблок?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À?[K] Âú ðñéîåòæóå íîå\nÉäåàìûîúö Ÿáìïë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yay! Thanks! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Friendly friends! ♪[K] Bring me\nlots and lots and lots!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ура! Спасибочки! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добрые друзья! ♪[K] Принесите мне\nмного и много и мнооого Идеальных Яблок!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñà! Òðàòéáïœëé! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñúå äñôèûÿ! ♪[K] Ðñéîåòéóå íîå\níîïãï é íîïãï é íîïïïãï Éäåàìûîúö Ÿáìïë!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um0702.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re going on an expedition![K]\nFun, fun, fun! ♪ Ooooh! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'d better not forget my precious\nPerfect Apple! ♪[K] La-la-la! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um0801.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы собираемся в экспедицию![K]\nВесело, весело, весело! ♪ Оооооой! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нужно не забыть моё прелестное\nИдеальное Яблоко! ♪[K] Ла-ла-ла! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òïáéñàåíòÿ â üëòðåäéøéý![K]\nÂåòåìï, âåòåìï, âåòåìï! ♪ Ïïïïïïê! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îôçîï îå èàáúóû íïæ ðñåìåòóîïå\nÉäåàìûîïå Ÿáìïëï! ♪[K] Ìà-ìà-ìà! ♪</t>
   </si>
 </sst>
 </file>
@@ -124,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -165,11 +228,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -190,6 +264,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,6 +673,143 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8">
+        <v>364</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="8">
+        <v>364</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4">
+        <v>488</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>496</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
+        <v>499</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8">
+        <v>364</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4">
+        <v>464</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>467</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -157,6 +157,45 @@
   </si>
   <si>
     <t xml:space="preserve"> Îôçîï îå èàáúóû íïæ ðñåìåòóîïå\nÉäåàìûîïå Ÿáìïëï! ♪[K] Ìà-ìà-ìà! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/D08P11A/um0902.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, I wish the gang would report\nin soon! ♪ Ooooh, this is exciting! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой, я так хочу, чтобы ребята\nвернулись с хорошими вестями! ♪\nОоооо, это так интересно! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê, ÿ óàë öïœô, œóïáú ñåáÿóà\nâåñîôìéòû ò öïñïšéíé âåòóÿíé! ♪\nÏïïïï, üóï óàë éîóåñåòîï! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hiya!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The expedition was fun! ♪[K]\nLet\'s do it again soon! ♪ La-la-la! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Приветик!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В экспедиции было весело! ♪\nНадо бы сходить туда ещё разок! ♪\nЛа-ла-ла! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéâåóéë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â üëòðåäéøéé áúìï âåòåìï! ♪\nÎàäï áú òöïäéóû óôäà åþæ ñàèïë! ♪\nÌà-ìà-ìà! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1102.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1103.ssb</t>
   </si>
 </sst>
 </file>
@@ -552,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,17 +836,101 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6">
         <v>467</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="8">
+        <v>445</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4">
+        <v>423</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6">
+        <v>426</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8">
+        <v>364</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="8">
+        <v>364</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -196,6 +196,54 @@
   </si>
   <si>
     <t>SCRIPT/G01P05A/um1103.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1201.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1305.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In the name of [CS:N]Wigglytuff[CR]\'s\nGuild...[K]we\'ll catch that [CS:N]Grovyle[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Во имя Гильдии [CS:N]Виглитаффа[CR]...[K]\nМы поймаем этого [CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âï éíÿ Ãéìûäéé [CS:N]Âéãìéóàõõà[CR]...[K]\nÍú ðïêíàåí üóïãï [CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1301.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1302.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do your very best!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/um1404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сделайте всё возможное!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òäåìàêóå âòæ âïèíïçîïå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1501.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1502.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1601.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um1602.ssb</t>
   </si>
 </sst>
 </file>
@@ -591,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,7 +965,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="8">
@@ -930,6 +978,124 @@
         <v>22</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="8">
+        <v>364</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4">
+        <v>402</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="4">
+        <v>383</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="8">
+        <v>364</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="8">
+        <v>364</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -244,6 +244,99 @@
   </si>
   <si>
     <t>SCRIPT/G01P05A/um1602.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go talk to [CS:N]Torkoal[CR],\nthe town elder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If anyone knows about the\n[CS:P]Hidden Land[CR], it\'d be him! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You should put his years of\nwisdom to use! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/G01P05A/um2101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поговорите с [CS:N]Торкоалом[CR],\nгородским старейшиной.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если кто и знает про [CS:P]Сокрытые\nЗемли[CR], то это он! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вам пригодится его многолетняя\nмудрость! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïãïâïñéóå ò [CS:N]Óïñëïàìïí[CR],\nãïñïäòëéí òóàñåêšéîïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé ëóï é èîàåó ðñï [CS:P]Òïëñúóúå\nÈåíìé[CR], óï üóï ïî! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàí ðñéãïäéóòÿ åãï íîïãïìåóîÿÿ\níôäñïòóû! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You should ask [CS:N]Torkoal[CR], the\ntown elder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He may know something about\nthe [CS:P]Hidden Land[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вам нужно расспросить [CS:N]Торкоала[CR],\nгородского старейшину.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он может знать что-нибудь о\n[CS:P]Сокрытых Землях[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàí îôçîï ñàòòðñïòéóû [CS:N]Óïñëïàìà[CR],\nãïñïäòëïãï òóàñåêšéîô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî íïçåó èîàóû œóï-îéáôäû ï\n[CS:P]Òïëñúóúö Èåíìÿö[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re going to [CS:P]Brine Cave[CR]\ntomorrow! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go get ready while you have\nthe chance! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Завтра мы отправимся в [CS:P]Пещеру\nу Моря[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Подготовьтесь, пока у вас есть\nтакая возможность!♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàâóñà íú ïóðñàâéíòÿ â [CS:P]Ðåþåñô\nô Íïñÿ[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïäãïóïâûóåòû, ðïëà ô âàò åòóû\nóàëàÿ âïèíïçîïòóû! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um2202.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ooooh, Team [team:]! You\ncan do it! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Best of luck! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/G01P05A/um2401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ооооо, Команда [team:]!\nУ вас всё получится! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи вам всем! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïïïï, Ëïíàîäà [team:]!\nÔ âàò âòæ ðïìôœéóòÿ! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé âàí âòåí! ♪</t>
   </si>
 </sst>
 </file>
@@ -639,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,6 +1192,159 @@
         <v>23</v>
       </c>
     </row>
+    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="4">
+        <v>338</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>341</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>344</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>313</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>316</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6">
+        <v>319</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="4">
+        <v>291</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="6">
+        <v>294</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="4">
+        <v>269</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>272</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -337,6 +337,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Ôäàœé âàí âòåí! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/um2501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Work hard on your graduation\nexam! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/us0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи вам на выпускном\nэкзамене! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé âàí îà âúðôòëîïí\nüëèàíåîå! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Congratulations! You graduated\nfrom the guild! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From now on, your team can\nexplore independently from us! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But if you have trouble deciding\nwhere you want to explore…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can always take on the jobs\nlisted here! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope you\'ll keep exploring all\non your own! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Теперь ваша команда сможет\nисследовать независимо от нас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, если вы не знаете куда\nпойти...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы всегда можете принять наши\nзадания! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, вы продолжите свои\nисследования! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поздравляю с выпуском из\nгильдии! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïèäñàâìÿý ò âúðôòëïí éè\nãéìûäéé! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óåðåñû âàšà ëïíàîäà òíïçåó\néòòìåäïâàóû îåèàâéòéíï ïó îàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, åòìé âú îå èîàåóå ëôäà\nðïêóé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú âòåãäà íïçåóå ðñéîÿóû îàšé\nèàäàîéÿ! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, âú ðñïäïìçéóå òâïé\néòòìåäïâàîéÿ! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/us3101.ssb</t>
   </si>
 </sst>
 </file>
@@ -732,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,7 +1377,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>101</v>
       </c>
@@ -1331,18 +1394,114 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="4">
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="6">
         <v>272</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="7" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="8">
+        <v>250</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="4">
+        <v>219</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="4">
+        <v>222</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>225</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>228</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>231</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="176">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -400,6 +400,153 @@
   </si>
   <si>
     <t>SCRIPT/G01P05A/us3101.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/us0201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Secret Rank?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/G01P05A/us0202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wow! Seems like a fun rank! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Секретный Ранг?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вау! Какой забавный ранг! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåëñåóîúê Ñàîã?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàô! Ëàëïê èàáàâîúê ñàîã! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/us0302.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Friendly friends! ♪[K] Are you\nkeeping up with your exploring?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добрые мои друзья! ♪[K]\nВы всё ещё исследуете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñúå íïé äñôèûÿ! ♪[K]\nÂú âòæ åþæ éòòìåäôåóå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yay! Yay! ♪ Perfect Apple! ♪\nPerfect Apple! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ура! Ура! ♪ Идеальное Яблоко! ♪\nИдеальное Яблоко! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñà! Ôñà! ♪ Éäåàìûîïå Ÿáìïëï! ♪\nÉäåàìûîïå Ÿáìïëï! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/us0402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keep up exploring as always! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Продолжайте исследовать! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïäïìçàêóå éòòìåäïâàóû! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/G01P05A/us2001.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll leave this up to you,\nTeam [team:]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bring [CS:N]Drowzee[CR] back here! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07A/us2002.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы доверим вам это дело,\nКоманда [team:]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Приведите сюда [CS:N]Дроузи[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïâåñéí âàí üóï äåìï,\nËïíàîäà [team:]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéâåäéóå òýäà [CS:N]Äñïôèé[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s good you found [CS:N]Drowzee[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now it gets tricky![K] You have to\nfind out why [CS:N]Azurill[CR] can\'t wake from his\nnightmare! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2007.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как здорово, что вы нашли\n[CS:N]Дроузи[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но теперь всё сложнее![K] Вам\nпридётся узнать, почему [CS:N]Азурилл[CR] не может\nпроснуться! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë èäïñïâï, œóï âú îàšìé\n[CS:N]Äñïôèé[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï óåðåñû âòæ òìïçîåå![K] Âàí\nðñéäæóòÿ ôèîàóû, ðïœåíô [CS:N]Àèôñéìì[CR] îå íïçåó\nðñïòîôóûòÿ! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/G01P05A/us2101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now we have to investigate the\ndistortion of space! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we don\'t, we won\'t be able\nto stop the nightmare from spreading! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Теперь нам нужно узнать больше\nоб искажении пространства! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы этого не сделаем, мы\nне сможем остановить распространение\nкошмара! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óåðåñû îàí îôçîï ôèîàóû áïìûšå\nïá éòëàçåîéé ðñïòóñàîòóâà! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú üóïãï îå òäåìàåí, íú\nîå òíïçåí ïòóàîïâéóû ñàòðñïòóñàîåîéå\nëïšíàñà! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two can do it. You\'ve shown\nme you can! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s all up to you to defeat that\n[CS:N]Darkrai[CR]! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/us2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У вас всё получится. Я знаю,\nчто вы справитесь! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Только вы можете победить\n[CS:N]Даркрая[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô âàò âòæ ðïìôœéóòÿ. Ÿ èîàý,\nœóï âú òðñàâéóåòû! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïìûëï âú íïçåóå ðïáåäéóû\n[CS:N]Äàñëñàÿ[CR]! ♪</t>
   </si>
 </sst>
 </file>
@@ -430,7 +577,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -482,11 +629,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -513,6 +678,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1639,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="B45" s="4">
         <v>225</v>
       </c>
@@ -1491,17 +1671,237 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="4">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10">
         <v>231</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="11" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="4">
+        <v>196</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6">
+        <v>200</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="8">
+        <v>177</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="6">
+        <v>158</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="12">
+        <v>139</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="4">
+        <v>117</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6">
+        <v>120</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="4">
+        <v>95</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6">
+        <v>98</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="4">
+        <v>73</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6">
+        <v>76</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="4">
+        <v>51</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>54</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Виглитафф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="193">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -547,6 +547,57 @@
   </si>
   <si>
     <t xml:space="preserve"> Óïìûëï âú íïçåóå ðïáåäéóû\n[CS:N]Äàñëñàÿ[CR]! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P05A/us2202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two are fantastic!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You saved the world not just\nonce, but twice! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think you\'re going to become an\neven more incredible exploration team!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Equal to even the legendary\nTeam [CS:X]Raider[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keep up your exploring! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы двое невероятны!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы спасли мир не единожды, но\nдважды! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я думаю, что вы станете ещё\nболее невероятной командой!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Равной даже легендарной Команде\n[CS:X]Рейдер[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не прекращайте исследовать! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äâïå îåâåñïÿóîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú òðàòìé íéñ îå åäéîïçäú, îï\näâàçäú! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äôíàý, œóï âú òóàîåóå åþæ\náïìåå îåâåñïÿóîïê ëïíàîäïê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàâîïê äàçå ìåãåîäàñîïê Ëïíàîäå\n[CS:X]Ñåêäåñ[CR]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå ðñåëñàþàêóå éòòìåäïâàóû! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/G01P05A/us2301.ssb </t>
   </si>
 </sst>
 </file>
@@ -972,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1891,17 +1942,94 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="4">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6">
         <v>54</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="7" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="4">
+        <v>18</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="4">
+        <v>21</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
+        <v>24</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>27</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>31</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
